--- a/data/trans_dic/P19C05-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C05-Edad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0172116573832875</v>
+        <v>0.01596960107847561</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01663710303552619</v>
+        <v>0.01499670479559127</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0218327867252924</v>
+        <v>0.02182839135424047</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.003203923025598309</v>
+        <v>0.003214864145750501</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.009820831150067592</v>
+        <v>0.009975724474916098</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02301625259398592</v>
+        <v>0.02413132171086942</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01592963961365404</v>
+        <v>0.01376082505088931</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.003775359615741004</v>
+        <v>0.003828021942496149</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01727396623179054</v>
+        <v>0.0170261688600962</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.0229330597003438</v>
+        <v>0.02342570309939607</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02309409074663765</v>
+        <v>0.02157016517789469</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.007863822806713707</v>
+        <v>0.007426146326873719</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05707975830118389</v>
+        <v>0.05209898090330117</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04916683675126089</v>
+        <v>0.04850512918809644</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06650783594342263</v>
+        <v>0.06211360571351717</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.0611987872830799</v>
+        <v>0.06613848522632464</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03926465276173209</v>
+        <v>0.03896931434478342</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.06590801663810893</v>
+        <v>0.06505790271240486</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05133476395917554</v>
+        <v>0.05156746833178973</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.051634693767162</v>
+        <v>0.048316524007153</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04109771296230841</v>
+        <v>0.03891457151905504</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.05030834922755952</v>
+        <v>0.05030368083359982</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.05083764700096744</v>
+        <v>0.0501142218084915</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04515653347233738</v>
+        <v>0.04517785032285955</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01918558511285971</v>
+        <v>0.01888919340558368</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02257821100645806</v>
+        <v>0.02348055531021934</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0265845058567196</v>
+        <v>0.02687762956148898</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02427295495508803</v>
+        <v>0.02311562016402777</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02356794286101859</v>
+        <v>0.02515565378210426</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04301537507734445</v>
+        <v>0.04354339044762437</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02168564660479307</v>
+        <v>0.02056913000246262</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02410368237341125</v>
+        <v>0.02350057560443441</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02535310986240896</v>
+        <v>0.02528994152318672</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03661574745717344</v>
+        <v>0.03651196322840759</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02814442225855735</v>
+        <v>0.02843996535778836</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02721428591173138</v>
+        <v>0.02864666135893051</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05403440367889514</v>
+        <v>0.05287107773398211</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05214343258742094</v>
+        <v>0.05539163875387328</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06645811460557093</v>
+        <v>0.06615699489860916</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.07597962308498619</v>
+        <v>0.07433225613444154</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05627717605652133</v>
+        <v>0.05687979843771401</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08641404182281448</v>
+        <v>0.08574936678393799</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05666501162375916</v>
+        <v>0.053822096792736</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.0642154357115878</v>
+        <v>0.06183106027828917</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04839998039280814</v>
+        <v>0.04848918183079155</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.06335602257401705</v>
+        <v>0.06242506572819985</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.05235676196170774</v>
+        <v>0.05456636498025423</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.0595967661809606</v>
+        <v>0.06148104556393276</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.0416163105242784</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.03833537847501833</v>
+        <v>0.03833537847501832</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.08380897177441879</v>
@@ -969,7 +969,7 @@
         <v>0.05412679096293737</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.04245861337509906</v>
+        <v>0.04245861337509904</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04733305762804044</v>
+        <v>0.04797562701086229</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05557999604540553</v>
+        <v>0.05668256805200431</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0263532841059065</v>
+        <v>0.02706564937129143</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02445624009979658</v>
+        <v>0.02454684276369588</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06384773265530395</v>
+        <v>0.06479906733954334</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05302787878815068</v>
+        <v>0.05359096767926435</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04776661247699044</v>
+        <v>0.04825179992485252</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03464339474216611</v>
+        <v>0.03419179451472738</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.06088071055412764</v>
+        <v>0.06066809542579091</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06010387250506036</v>
+        <v>0.06036947992459969</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04228350481515747</v>
+        <v>0.04222082827661899</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03255307291137039</v>
+        <v>0.03230850107310353</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.09471590429874999</v>
+        <v>0.09180825837916004</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1036835262015681</v>
+        <v>0.1043508523162447</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06307806060285344</v>
+        <v>0.06184255044003558</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05629754785835286</v>
+        <v>0.05811690129599959</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1114458573042574</v>
+        <v>0.1093857115028662</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.09664507097029675</v>
+        <v>0.09859059283905959</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.08799719837196976</v>
+        <v>0.09086372999403597</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06192226411125758</v>
+        <v>0.06306626681605632</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.09358189257837918</v>
+        <v>0.09297179384177812</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.09256263766071186</v>
+        <v>0.09343480185883173</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.06950011408076159</v>
+        <v>0.06949050480158128</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.0538930644546969</v>
+        <v>0.0542990398631235</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.09671611842059614</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.07254073438547828</v>
+        <v>0.0725407343854783</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.09484693751710074</v>
+        <v>0.09776018477855626</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.10840231772621</v>
+        <v>0.1078028123732607</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07411214740740481</v>
+        <v>0.07492384057900457</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05605125005563878</v>
+        <v>0.05716069519768043</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.09777406082814021</v>
+        <v>0.09811536969252108</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1250014436014274</v>
+        <v>0.1241567675997952</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0703249909741713</v>
+        <v>0.07325991872006316</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05532301123598686</v>
+        <v>0.05515291773977004</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1063826502104825</v>
+        <v>0.1042123947296737</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1261521855551146</v>
+        <v>0.1270199287715826</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.07913117042636722</v>
+        <v>0.07918726114399349</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06042639936867309</v>
+        <v>0.06077266159353337</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1646717865648029</v>
+        <v>0.1673623935233324</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1781404204332341</v>
+        <v>0.1773235609590856</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1277303514313031</v>
+        <v>0.1321827937676504</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.09823247756138918</v>
+        <v>0.09939462248962806</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1600418688233091</v>
+        <v>0.160968697337487</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1877303272882109</v>
+        <v>0.190591483657181</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1219397113902979</v>
+        <v>0.1220009450449493</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08462290572095922</v>
+        <v>0.08533616160040908</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1529804685599041</v>
+        <v>0.1530120335465023</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1696254609622979</v>
+        <v>0.1730082231907318</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1171403398783895</v>
+        <v>0.1153833672397727</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.08595771765847318</v>
+        <v>0.08700558800568604</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2085472670344325</v>
+        <v>0.2121017779797088</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2176983949636387</v>
+        <v>0.213307955029546</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1333757662066195</v>
+        <v>0.133979669985726</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0950642169656272</v>
+        <v>0.09763339363215533</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1973699031713716</v>
+        <v>0.1973822739388515</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1975821150446727</v>
+        <v>0.1959256868214068</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1366645377137765</v>
+        <v>0.1400370320650701</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.08251729351199327</v>
+        <v>0.08453410471254963</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2205224153960633</v>
+        <v>0.2160969241532253</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2188393993323525</v>
+        <v>0.2185039365822146</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1443444093390379</v>
+        <v>0.14593036875951</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.09611064983809828</v>
+        <v>0.09478642406624765</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.311309298048812</v>
+        <v>0.310618648503686</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3153285414151907</v>
+        <v>0.3153603962869169</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2185666424220567</v>
+        <v>0.2215785365125819</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1461673426949941</v>
+        <v>0.1460789001534761</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2889700233534546</v>
+        <v>0.292004476748681</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2899513432371858</v>
+        <v>0.2858123423736044</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.218751512340222</v>
+        <v>0.2209159261129791</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.119199634128243</v>
+        <v>0.1228269057141481</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2899557318082365</v>
+        <v>0.2847085205918249</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2845334126877334</v>
+        <v>0.2839553793563696</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1996537639733262</v>
+        <v>0.2063650215957882</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1266648854358671</v>
+        <v>0.1261752833303867</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3279937918819706</v>
+        <v>0.3263419053105316</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3456158031453735</v>
+        <v>0.3377279129595339</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1987633866963036</v>
+        <v>0.1936813798965412</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1486872508258608</v>
+        <v>0.1503291390435556</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3587656597756543</v>
+        <v>0.3633122488854815</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3677449611358658</v>
+        <v>0.3623237168025587</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2236628832205575</v>
+        <v>0.2231620229888302</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2016494832652056</v>
+        <v>0.2007252208978842</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.3647314421148</v>
+        <v>0.3569313534713272</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.365008743504009</v>
+        <v>0.3745511538540059</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2275548699059621</v>
+        <v>0.2250854084019895</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.185297542500261</v>
+        <v>0.1852230938549469</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4585100460551258</v>
+        <v>0.4509738634908815</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4724862046725689</v>
+        <v>0.4719789832202001</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3149747481517283</v>
+        <v>0.3180843969617551</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2124456064227872</v>
+        <v>0.2124526933552693</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.480729217540959</v>
+        <v>0.4829387848746687</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4872040717542791</v>
+        <v>0.4813107572959819</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3333887137337767</v>
+        <v>0.3269387837582351</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2587806597339808</v>
+        <v>0.2591861659404323</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.4551120594233489</v>
+        <v>0.4456577872764489</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.4549275018394868</v>
+        <v>0.458186736392994</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3074639871612174</v>
+        <v>0.308608099283368</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2275384806125715</v>
+        <v>0.2283099072352663</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.328729268580299</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.3767214403974866</v>
+        <v>0.3767214403974867</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3959863602197051</v>
+        <v>0.4082320638089965</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3690938516267767</v>
+        <v>0.3757069363455242</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.288150122050807</v>
+        <v>0.2877773034998783</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3100167880904611</v>
+        <v>0.3085764555292114</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5331201578662659</v>
+        <v>0.5324171854989272</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.4903821550104558</v>
+        <v>0.4927755800097718</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2394068219199734</v>
+        <v>0.2444881614128012</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3588993773589823</v>
+        <v>0.3571811941550895</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.5072055938445064</v>
+        <v>0.5103885649492529</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.46517169755738</v>
+        <v>0.4681178146573285</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2791469300005185</v>
+        <v>0.2767729851266112</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.3504909249371735</v>
+        <v>0.3527539108357513</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5730967293122489</v>
+        <v>0.5879130981443331</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5271441827340121</v>
+        <v>0.5229215864479134</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4300404371492407</v>
+        <v>0.4358793525291862</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4003107867904685</v>
+        <v>0.4011132453629869</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6760994613323577</v>
+        <v>0.6750420923644804</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.6134391700030222</v>
+        <v>0.6117328082086284</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3872501931720504</v>
+        <v>0.3862625662345576</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4252426043303594</v>
+        <v>0.4262574987371494</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.6181089314764232</v>
+        <v>0.6180242060148579</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.5598856095435313</v>
+        <v>0.5628642233612384</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3829787081452816</v>
+        <v>0.3834231904036015</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.4080052534188868</v>
+        <v>0.4036226847826418</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1222325170665539</v>
+        <v>0.1233189624332062</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1356881827708394</v>
+        <v>0.1367755886967627</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.09535404479675966</v>
+        <v>0.09529982325498546</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.09336382137377135</v>
+        <v>0.09353810171466535</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1481952969562092</v>
+        <v>0.1472937971892109</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1687165810683336</v>
+        <v>0.1683309873249518</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1037821014008723</v>
+        <v>0.1045585965468454</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1128419101089293</v>
+        <v>0.1118747752307071</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1392282296822801</v>
+        <v>0.1389100731941768</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1575713248318974</v>
+        <v>0.1575813024857926</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1030703796187409</v>
+        <v>0.1032979491098011</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.106213935105234</v>
+        <v>0.1062433508840256</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1506208364361623</v>
+        <v>0.1525321313652471</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1635878062444834</v>
+        <v>0.1653941477088716</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1200427092386084</v>
+        <v>0.118119105360795</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1138282934511194</v>
+        <v>0.1137421539346241</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1761592366774703</v>
+        <v>0.1746100608037576</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.196065453304522</v>
+        <v>0.1952558437214867</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.129221918957221</v>
+        <v>0.1289392457201006</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1297661371702448</v>
+        <v>0.1299101034993521</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1595712881084231</v>
+        <v>0.1591039172566758</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1765904805406887</v>
+        <v>0.1773289951869211</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.121092266250732</v>
+        <v>0.1207856635563722</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1193907724463658</v>
+        <v>0.1196059855734838</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6186</v>
+        <v>5739</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>6308</v>
+        <v>5686</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7703</v>
+        <v>7702</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1214</v>
+        <v>1218</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3695</v>
+        <v>3753</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>8539</v>
+        <v>8953</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5606</v>
+        <v>4843</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1296</v>
+        <v>1314</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>12708</v>
+        <v>12525</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>17204</v>
+        <v>17573</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>16276</v>
+        <v>15202</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>5678</v>
+        <v>5362</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>20515</v>
+        <v>18724</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>18643</v>
+        <v>18392</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>23467</v>
+        <v>21916</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>23185</v>
+        <v>25057</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>14773</v>
+        <v>14662</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>24451</v>
+        <v>24136</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>18066</v>
+        <v>18148</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>17723</v>
+        <v>16584</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>30234</v>
+        <v>28628</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>37740</v>
+        <v>37736</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>35829</v>
+        <v>35319</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>32607</v>
+        <v>32623</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>11047</v>
+        <v>10876</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>13485</v>
+        <v>14024</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13108</v>
+        <v>13253</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>10823</v>
+        <v>10307</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>12908</v>
+        <v>13778</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>24037</v>
+        <v>24332</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>10772</v>
+        <v>10217</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>11633</v>
+        <v>11342</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>28484</v>
+        <v>28413</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>42331</v>
+        <v>42211</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>27857</v>
+        <v>28150</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>25269</v>
+        <v>26598</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>31112</v>
+        <v>30442</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>31144</v>
+        <v>33084</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>32769</v>
+        <v>32621</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>33879</v>
+        <v>33144</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>30823</v>
+        <v>31154</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>48289</v>
+        <v>47918</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>28147</v>
+        <v>26735</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>30991</v>
+        <v>29840</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>54377</v>
+        <v>54477</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>73244</v>
+        <v>72168</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>51823</v>
+        <v>54010</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>55336</v>
+        <v>57085</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>23805</v>
+        <v>24129</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>32606</v>
+        <v>33253</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>14701</v>
+        <v>15099</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>14701</v>
+        <v>14756</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>38536</v>
+        <v>39110</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>34969</v>
+        <v>35341</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>27374</v>
+        <v>27652</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>21038</v>
+        <v>20764</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>67364</v>
+        <v>67129</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>74896</v>
+        <v>75227</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>47820</v>
+        <v>47749</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>39337</v>
+        <v>39042</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>47636</v>
+        <v>46173</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>60826</v>
+        <v>61218</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>35189</v>
+        <v>34499</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>33842</v>
+        <v>34935</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>67265</v>
+        <v>66021</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>63733</v>
+        <v>65016</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>50429</v>
+        <v>52072</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>37604</v>
+        <v>38299</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>103548</v>
+        <v>102873</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>115343</v>
+        <v>116429</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>78600</v>
+        <v>78590</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>65125</v>
+        <v>65615</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
+        <v>39568</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>58520</v>
+      </c>
+      <c r="E18" s="6" t="n">
         <v>38389</v>
       </c>
-      <c r="D18" s="6" t="n">
-        <v>58845</v>
-      </c>
-      <c r="E18" s="6" t="n">
-        <v>37973</v>
-      </c>
       <c r="F18" s="6" t="n">
-        <v>38020</v>
+        <v>38772</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>42941</v>
+        <v>43091</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>70420</v>
+        <v>69944</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>38319</v>
+        <v>39918</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>39930</v>
+        <v>39807</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>89780</v>
+        <v>87948</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>139548</v>
+        <v>140508</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>83662</v>
+        <v>83721</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>84600</v>
+        <v>85085</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>66651</v>
+        <v>67740</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>96702</v>
+        <v>96258</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>65445</v>
+        <v>67727</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>66631</v>
+        <v>67419</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>70288</v>
+        <v>70695</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>105758</v>
+        <v>107370</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>66443</v>
+        <v>66476</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>61077</v>
+        <v>61592</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>129105</v>
+        <v>129132</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>187638</v>
+        <v>191380</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>123847</v>
+        <v>121990</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>120346</v>
+        <v>121813</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>56798</v>
+        <v>57766</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>78657</v>
+        <v>77070</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>49483</v>
+        <v>49707</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>56407</v>
+        <v>57931</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>62977</v>
+        <v>62981</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>77198</v>
+        <v>76551</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>54102</v>
+        <v>55437</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>49168</v>
+        <v>50370</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>130424</v>
+        <v>127806</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>164573</v>
+        <v>164320</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>110694</v>
+        <v>111910</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>114295</v>
+        <v>112720</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>84785</v>
+        <v>84597</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>113931</v>
+        <v>113943</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>81089</v>
+        <v>82206</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>86729</v>
+        <v>86677</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>92205</v>
+        <v>93173</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>113288</v>
+        <v>111671</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>86598</v>
+        <v>87455</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>71025</v>
+        <v>73186</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>171489</v>
+        <v>168385</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>213976</v>
+        <v>213542</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>153109</v>
+        <v>158256</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>150630</v>
+        <v>150048</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>69786</v>
+        <v>69434</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>90721</v>
+        <v>88650</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>45740</v>
+        <v>44571</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>59139</v>
+        <v>59793</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>88593</v>
+        <v>89716</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>110540</v>
+        <v>108911</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>61943</v>
+        <v>61804</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>86493</v>
+        <v>86096</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>167668</v>
+        <v>164082</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>205529</v>
+        <v>210902</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>115387</v>
+        <v>114135</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>153180</v>
+        <v>153118</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>97555</v>
+        <v>95951</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>124023</v>
+        <v>123890</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>72484</v>
+        <v>73199</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>84499</v>
+        <v>84502</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>118710</v>
+        <v>119256</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>146448</v>
+        <v>144677</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>92331</v>
+        <v>90545</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>110997</v>
+        <v>111171</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>209216</v>
+        <v>204870</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>256160</v>
+        <v>257995</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>155907</v>
+        <v>156487</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>188099</v>
+        <v>188737</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>50197</v>
+        <v>51749</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>68255</v>
+        <v>69478</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>42374</v>
+        <v>42320</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>93752</v>
+        <v>93316</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>111000</v>
+        <v>110854</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>148298</v>
+        <v>149022</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>54556</v>
+        <v>55714</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>159992</v>
+        <v>159226</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>169900</v>
+        <v>170966</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>226696</v>
+        <v>228132</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>104662</v>
+        <v>103772</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>262236</v>
+        <v>263929</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>72648</v>
+        <v>74526</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>97483</v>
+        <v>96702</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>63240</v>
+        <v>64099</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>121058</v>
+        <v>121300</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>140769</v>
+        <v>140549</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>185512</v>
+        <v>184996</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>88246</v>
+        <v>88021</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>189567</v>
+        <v>190020</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>207049</v>
+        <v>207021</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>272854</v>
+        <v>274306</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>143593</v>
+        <v>143759</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>305268</v>
+        <v>301989</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>300049</v>
+        <v>302716</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>395485</v>
+        <v>398654</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>254055</v>
+        <v>253910</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>317220</v>
+        <v>317812</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>406194</v>
+        <v>403723</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>530837</v>
+        <v>529623</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>297576</v>
+        <v>299802</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>409102</v>
+        <v>405596</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>723385</v>
+        <v>721732</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>955037</v>
+        <v>955097</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>570149</v>
+        <v>571408</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>745954</v>
+        <v>746160</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>369735</v>
+        <v>374427</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>476803</v>
+        <v>482068</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>319834</v>
+        <v>314709</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>386752</v>
+        <v>386459</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>482841</v>
+        <v>478595</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>616885</v>
+        <v>614338</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>370520</v>
+        <v>369709</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>470460</v>
+        <v>470982</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>829081</v>
+        <v>826653</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1070311</v>
+        <v>1074787</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>669840</v>
+        <v>668144</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>838496</v>
+        <v>840008</v>
       </c>
     </row>
     <row r="36">
